--- a/IIE3107/hw2.xlsx
+++ b/IIE3107/hw2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jangseohyun/Documents/workspace/undergrad-coursework/IIE3107/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B6D274-B91D-DB40-AB3F-D7F33992F965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675E8B7B-4FA7-A746-8A89-C4580AC15F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="64280" yWindow="-11200" windowWidth="30080" windowHeight="33340" xr2:uid="{9B3FF180-8C70-A644-82AC-6EDA7A7070C6}"/>
+    <workbookView xWindow="19200" yWindow="860" windowWidth="19200" windowHeight="24000" xr2:uid="{9B3FF180-8C70-A644-82AC-6EDA7A7070C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5662E8BE-0648-E043-9617-8E9B79CEA792}">
   <dimension ref="A1:X114"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" topLeftCell="P72" zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="S92" sqref="S92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3867,7 +3867,7 @@
         <v>28</v>
       </c>
       <c r="C78" s="1">
-        <v>4.7699999999999996</v>
+        <v>5</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>29</v>
@@ -3889,7 +3889,7 @@
         <v>33</v>
       </c>
       <c r="O78" s="1">
-        <v>2.7029999999999998</v>
+        <v>3</v>
       </c>
       <c r="P78" s="1"/>
       <c r="Q78" s="1"/>
@@ -3905,7 +3905,7 @@
         <v>33</v>
       </c>
       <c r="W78" s="1">
-        <v>3.0539999999999998</v>
+        <v>3</v>
       </c>
       <c r="X78" s="1"/>
     </row>
@@ -4036,11 +4036,11 @@
       </c>
       <c r="N81" s="1">
         <f>$L$112 + $O$78*$L$113*SQRT($M$78/(2-$M$78)*(1-(1-$M$78)^(2*K81)))</f>
-        <v>6.4856798566666676</v>
+        <v>6.6878566666666677</v>
       </c>
       <c r="O81" s="1">
         <f>$L$112 - $O$78*$L$113*SQRT($M$78/(2-$M$78)*(1-(1-$M$78)^(2*K81)))</f>
-        <v>2.8056534766666683</v>
+        <v>2.6034766666666682</v>
       </c>
       <c r="P81" s="1"/>
       <c r="Q81" s="1"/>
@@ -4057,11 +4057,11 @@
       </c>
       <c r="V81" s="1">
         <f>$L$112+$W$78*$L$113*SQRT($U$78/(2-$U$78)*(1-(1-$U$78)^(2*S81)))</f>
-        <v>12.961464346666666</v>
+        <v>12.81442666666667</v>
       </c>
       <c r="W81" s="1">
         <f>$L$112-$W$78*$L$113*SQRT($U$78/(2-$U$78)*(1-(1-$U$78)^(2*S81)))</f>
-        <v>-3.6701310133333314</v>
+        <v>-3.5230933333333327</v>
       </c>
       <c r="X81" s="1"/>
     </row>
@@ -4073,7 +4073,7 @@
         <v>3.39</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" ref="C82:C111" si="16">B82-8.049</f>
+        <f t="shared" ref="C82:C110" si="16">B82-8.049</f>
         <v>-4.6589999999999989</v>
       </c>
       <c r="D82" s="1">
@@ -4106,11 +4106,11 @@
       </c>
       <c r="N82" s="1">
         <f t="shared" ref="N82:N110" si="21">$L$112 + $O$78*$L$113*SQRT($M$78/(2-$M$78)*(1-(1-$M$78)^(2*K82)))</f>
-        <v>7.1211512366583483</v>
+        <v>7.393152315936014</v>
       </c>
       <c r="O82" s="1">
         <f t="shared" ref="O82:O110" si="22">$L$112 - $O$78*$L$113*SQRT($M$78/(2-$M$78)*(1-(1-$M$78)^(2*K82)))</f>
-        <v>2.1701820966749876</v>
+        <v>1.8981810173973219</v>
       </c>
       <c r="P82" s="1"/>
       <c r="Q82" s="1"/>
@@ -4127,11 +4127,11 @@
       </c>
       <c r="V82" s="1">
         <f t="shared" ref="V82:V110" si="24">$L$112+$W$78*$L$113*SQRT($U$78/(2-$U$78)*(1-(1-$U$78)^(2*S82)))</f>
-        <v>14.343469914535898</v>
+        <v>14.171995986773968</v>
       </c>
       <c r="W82" s="1">
         <f t="shared" ref="W82:W110" si="25">$L$112-$W$78*$L$113*SQRT($U$78/(2-$U$78)*(1-(1-$U$78)^(2*S82)))</f>
-        <v>-5.0521365812025616</v>
+        <v>-4.8806626534406332</v>
       </c>
       <c r="X82" s="1"/>
     </row>
@@ -4176,11 +4176,11 @@
       </c>
       <c r="N83" s="1">
         <f t="shared" si="21"/>
-        <v>7.5351904791572588</v>
+        <v>7.8526853264786443</v>
       </c>
       <c r="O83" s="1">
         <f t="shared" si="22"/>
-        <v>1.7561428541760771</v>
+        <v>1.4386480068546912</v>
       </c>
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
@@ -4197,11 +4197,11 @@
       </c>
       <c r="V83" s="1">
         <f t="shared" si="24"/>
-        <v>14.795028748840661</v>
+        <v>14.615570480197118</v>
       </c>
       <c r="W83" s="1">
         <f t="shared" si="25"/>
-        <v>-5.5036954155073259</v>
+        <v>-5.3242371468637808</v>
       </c>
       <c r="X83" s="1"/>
     </row>
@@ -4246,11 +4246,11 @@
       </c>
       <c r="N84" s="1">
         <f t="shared" si="21"/>
-        <v>7.831356593254565</v>
+        <v>8.1813935552214936</v>
       </c>
       <c r="O84" s="1">
         <f t="shared" si="22"/>
-        <v>1.4599767400787709</v>
+        <v>1.1099397781118427</v>
       </c>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
@@ -4267,11 +4267,11 @@
       </c>
       <c r="V84" s="1">
         <f t="shared" si="24"/>
-        <v>14.952748178797975</v>
+        <v>14.770501157954794</v>
       </c>
       <c r="W84" s="1">
         <f t="shared" si="25"/>
-        <v>-5.6614148454646402</v>
+        <v>-5.4791678246214568</v>
       </c>
       <c r="X84" s="1"/>
     </row>
@@ -4316,11 +4316,11 @@
       </c>
       <c r="N85" s="1">
         <f t="shared" si="21"/>
-        <v>8.0524292044947003</v>
+        <v>8.4267571637011116</v>
       </c>
       <c r="O85" s="1">
         <f t="shared" si="22"/>
-        <v>1.2389041288386355</v>
+        <v>0.86457616963222517</v>
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" s="1"/>
@@ -4337,11 +4337,11 @@
       </c>
       <c r="V85" s="1">
         <f t="shared" si="24"/>
-        <v>15.008939586061977</v>
+        <v>14.825699003990159</v>
       </c>
       <c r="W85" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7176062527286424</v>
+        <v>-5.5343656706568227</v>
       </c>
       <c r="X85" s="1"/>
     </row>
@@ -4386,11 +4386,11 @@
       </c>
       <c r="N86" s="1">
         <f t="shared" si="21"/>
-        <v>8.2214929544754387</v>
+        <v>8.6143972857663034</v>
       </c>
       <c r="O86" s="1">
         <f t="shared" si="22"/>
-        <v>1.0698403788578972</v>
+        <v>0.67693604756703252</v>
       </c>
       <c r="P86" s="1"/>
       <c r="Q86" s="1"/>
@@ -4407,11 +4407,11 @@
       </c>
       <c r="V86" s="1">
         <f t="shared" si="24"/>
-        <v>15.029094052234854</v>
+        <v>14.84549710435644</v>
       </c>
       <c r="W86" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7377607189015167</v>
+        <v>-5.5541637710231031</v>
       </c>
       <c r="X86" s="1"/>
     </row>
@@ -4456,11 +4456,11 @@
       </c>
       <c r="N87" s="1">
         <f t="shared" si="21"/>
-        <v>8.3527869490755382</v>
+        <v>8.7601175905388882</v>
       </c>
       <c r="O87" s="1">
         <f t="shared" si="22"/>
-        <v>0.93854638425779813</v>
+        <v>0.53121574279444772</v>
       </c>
       <c r="P87" s="1"/>
       <c r="Q87" s="1"/>
@@ -4477,11 +4477,11 @@
       </c>
       <c r="V87" s="1">
         <f t="shared" si="24"/>
-        <v>15.036340090097202</v>
+        <v>14.852615019741851</v>
       </c>
       <c r="W87" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7450067567638667</v>
+        <v>-5.5612816864085142</v>
       </c>
       <c r="X87" s="1"/>
     </row>
@@ -4526,11 +4526,11 @@
       </c>
       <c r="N88" s="1">
         <f t="shared" si="21"/>
-        <v>8.4558200202541869</v>
+        <v>8.8744717205928829</v>
       </c>
       <c r="O88" s="1">
         <f t="shared" si="22"/>
-        <v>0.83551331307914811</v>
+        <v>0.41686161274045208</v>
       </c>
       <c r="P88" s="1"/>
       <c r="Q88" s="1"/>
@@ -4547,11 +4547,11 @@
       </c>
       <c r="V88" s="1">
         <f t="shared" si="24"/>
-        <v>15.038947427040274</v>
+        <v>14.855176254459998</v>
       </c>
       <c r="W88" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7476140937069387</v>
+        <v>-5.5638429211266613</v>
       </c>
       <c r="X88" s="1"/>
     </row>
@@ -4596,11 +4596,11 @@
       </c>
       <c r="N89" s="1">
         <f t="shared" si="21"/>
-        <v>8.5372776553750587</v>
+        <v>8.9648797506937399</v>
       </c>
       <c r="O89" s="1">
         <f t="shared" si="22"/>
-        <v>0.75405567795827722</v>
+        <v>0.32645358263959601</v>
       </c>
       <c r="P89" s="1"/>
       <c r="Q89" s="1"/>
@@ -4617,11 +4617,11 @@
       </c>
       <c r="V89" s="1">
         <f t="shared" si="24"/>
-        <v>15.039885908231479</v>
+        <v>14.856098141681219</v>
       </c>
       <c r="W89" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7485525748981425</v>
+        <v>-5.5647648083478822</v>
       </c>
       <c r="X89" s="1"/>
     </row>
@@ -4666,11 +4666,11 @@
       </c>
       <c r="N90" s="1">
         <f t="shared" si="21"/>
-        <v>8.602029108379643</v>
+        <v>9.0367459582459979</v>
       </c>
       <c r="O90" s="1">
         <f t="shared" si="22"/>
-        <v>0.68930422495369292</v>
+        <v>0.25458737508733886</v>
       </c>
       <c r="P90" s="1"/>
       <c r="Q90" s="1"/>
@@ -4687,11 +4687,11 @@
       </c>
       <c r="V90" s="1">
         <f t="shared" si="24"/>
-        <v>15.040223740718027</v>
+        <v>14.856430000705334</v>
       </c>
       <c r="W90" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7488904073846916</v>
+        <v>-5.5650966673719973</v>
       </c>
       <c r="X90" s="1"/>
     </row>
@@ -4736,11 +4736,11 @@
       </c>
       <c r="N91" s="1">
         <f t="shared" si="21"/>
-        <v>8.6537110268545128</v>
+        <v>9.0941065780849186</v>
       </c>
       <c r="O91" s="1">
         <f t="shared" si="22"/>
-        <v>0.63762230647882401</v>
+        <v>0.19722675524841637</v>
       </c>
       <c r="P91" s="1"/>
       <c r="Q91" s="1"/>
@@ -4757,11 +4757,11 @@
       </c>
       <c r="V91" s="1">
         <f t="shared" si="24"/>
-        <v>15.040345357725347</v>
+        <v>14.856549467313702</v>
       </c>
       <c r="W91" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490120243920115</v>
+        <v>-5.5652161339803667</v>
       </c>
       <c r="X91" s="1"/>
     </row>
@@ -4806,11 +4806,11 @@
       </c>
       <c r="N92" s="1">
         <f t="shared" si="21"/>
-        <v>8.6950898860762145</v>
+        <v>9.1400320600179974</v>
       </c>
       <c r="O92" s="1">
         <f t="shared" si="22"/>
-        <v>0.59624344725712053</v>
+        <v>0.15130127331533849</v>
       </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
@@ -4827,11 +4827,11 @@
       </c>
       <c r="V92" s="1">
         <f t="shared" si="24"/>
-        <v>15.040389139499656</v>
+        <v>14.856592474950546</v>
       </c>
       <c r="W92" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490558061663188</v>
+        <v>-5.5652591416172106</v>
       </c>
       <c r="X92" s="1"/>
     </row>
@@ -4876,11 +4876,11 @@
       </c>
       <c r="N93" s="1">
         <f t="shared" si="21"/>
-        <v>8.7282993407370952</v>
+        <v>9.1768905002631485</v>
       </c>
       <c r="O93" s="1">
         <f t="shared" si="22"/>
-        <v>0.56303399259623976</v>
+        <v>0.11444283307018743</v>
       </c>
       <c r="P93" s="1"/>
       <c r="Q93" s="1"/>
@@ -4897,11 +4897,11 @@
       </c>
       <c r="V93" s="1">
         <f t="shared" si="24"/>
-        <v>15.040404900893265</v>
+        <v>14.856607957655466</v>
       </c>
       <c r="W93" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490715675599278</v>
+        <v>-5.5652746243221314</v>
       </c>
       <c r="X93" s="1"/>
     </row>
@@ -4946,11 +4946,11 @@
       </c>
       <c r="N94" s="1">
         <f t="shared" si="21"/>
-        <v>8.7550022669794245</v>
+        <v>9.2065274883234487</v>
       </c>
       <c r="O94" s="1">
         <f t="shared" si="22"/>
-        <v>0.53633106635391048</v>
+        <v>8.4805845009888081E-2</v>
       </c>
       <c r="P94" s="1"/>
       <c r="Q94" s="1"/>
@@ -4967,11 +4967,11 @@
       </c>
       <c r="V94" s="1">
         <f t="shared" si="24"/>
-        <v>15.04041057498911</v>
+        <v>14.856613531423491</v>
       </c>
       <c r="W94" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490772416557752</v>
+        <v>-5.5652801980901545</v>
       </c>
       <c r="X94" s="1"/>
     </row>
@@ -5016,11 +5016,11 @@
       </c>
       <c r="N95" s="1">
         <f t="shared" si="21"/>
-        <v>8.7765051034652082</v>
+        <v>9.2303930116151029</v>
       </c>
       <c r="O95" s="1">
         <f t="shared" si="22"/>
-        <v>0.51482822986812771</v>
+        <v>6.0940321718232049E-2</v>
       </c>
       <c r="P95" s="1"/>
       <c r="Q95" s="1"/>
@@ -5037,11 +5037,11 @@
       </c>
       <c r="V95" s="1">
         <f t="shared" si="24"/>
-        <v>15.040412617662859</v>
+        <v>14.856615537979234</v>
       </c>
       <c r="W95" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490792843295226</v>
+        <v>-5.5652822046458992</v>
       </c>
       <c r="X95" s="1"/>
     </row>
@@ -5086,11 +5086,11 @@
       </c>
       <c r="N96" s="1">
         <f t="shared" si="21"/>
-        <v>8.7938406931545945</v>
+        <v>9.2496333997276317</v>
       </c>
       <c r="O96" s="1">
         <f t="shared" si="22"/>
-        <v>0.4974926401787414</v>
+        <v>4.169993360570512E-2</v>
       </c>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -5107,11 +5107,11 @@
       </c>
       <c r="V96" s="1">
         <f t="shared" si="24"/>
-        <v>15.040413353025311</v>
+        <v>14.856616260339209</v>
       </c>
       <c r="W96" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490800196919745</v>
+        <v>-5.5652829270058719</v>
       </c>
       <c r="X96" s="1"/>
     </row>
@@ -5127,7 +5127,7 @@
         <v>7.141</v>
       </c>
       <c r="D97" s="1">
-        <f t="shared" si="17"/>
+        <f>MAX(0,D96+C97)</f>
         <v>7.141</v>
       </c>
       <c r="E97" s="1">
@@ -5156,11 +5156,11 @@
       </c>
       <c r="N97" s="1">
         <f t="shared" si="21"/>
-        <v>8.8078295923745884</v>
+        <v>9.2651593700050938</v>
       </c>
       <c r="O97" s="1">
         <f t="shared" si="22"/>
-        <v>0.48350374095874749</v>
+        <v>2.6173963328242955E-2</v>
       </c>
       <c r="P97" s="1"/>
       <c r="Q97" s="1"/>
@@ -5177,11 +5177,11 @@
       </c>
       <c r="V97" s="1">
         <f t="shared" si="24"/>
-        <v>15.040413617755782</v>
+        <v>14.856616520388783</v>
       </c>
       <c r="W97" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490802844224449</v>
+        <v>-5.5652831870554484</v>
       </c>
       <c r="X97" s="1"/>
     </row>
@@ -5226,11 +5226,11 @@
       </c>
       <c r="N98" s="1">
         <f t="shared" si="21"/>
-        <v>8.8191262289106049</v>
+        <v>9.277697257392461</v>
       </c>
       <c r="O98" s="1">
         <f t="shared" si="22"/>
-        <v>0.47220710442273006</v>
+        <v>1.3636075940875791E-2</v>
       </c>
       <c r="P98" s="1"/>
       <c r="Q98" s="1"/>
@@ -5247,11 +5247,11 @@
       </c>
       <c r="V98" s="1">
         <f t="shared" si="24"/>
-        <v>15.040413713058747</v>
+        <v>14.856616614006629</v>
       </c>
       <c r="W98" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490803797254104</v>
+        <v>-5.5652832806732944</v>
       </c>
       <c r="X98" s="1"/>
     </row>
@@ -5296,11 +5296,11 @@
       </c>
       <c r="N99" s="1">
         <f t="shared" si="21"/>
-        <v>8.828254138638906</v>
+        <v>9.2878281227956787</v>
       </c>
       <c r="O99" s="1">
         <f t="shared" si="22"/>
-        <v>0.46307919469442993</v>
+        <v>3.5052105376571774E-3</v>
       </c>
       <c r="P99" s="1"/>
       <c r="Q99" s="1"/>
@@ -5317,11 +5317,11 @@
       </c>
       <c r="V99" s="1">
         <f t="shared" si="24"/>
-        <v>15.040413747367815</v>
+        <v>14.856616647709053</v>
       </c>
       <c r="W99" s="1">
         <f t="shared" si="25"/>
-        <v>-5.749080414034478</v>
+        <v>-5.5652833143757183</v>
       </c>
       <c r="X99" s="1"/>
     </row>
@@ -5366,11 +5366,11 @@
       </c>
       <c r="N100" s="1">
         <f t="shared" si="21"/>
-        <v>8.8356331686258738</v>
+        <v>9.2960179452007488</v>
       </c>
       <c r="O100" s="1">
         <f t="shared" si="22"/>
-        <v>0.45570016470746211</v>
+        <v>-4.6846118674119808E-3</v>
       </c>
       <c r="P100" s="1"/>
       <c r="Q100" s="1"/>
@@ -5387,11 +5387,11 @@
       </c>
       <c r="V100" s="1">
         <f t="shared" si="24"/>
-        <v>15.04041375971908</v>
+        <v>14.856616659841926</v>
       </c>
       <c r="W100" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490804263857429</v>
+        <v>-5.5652833265085908</v>
       </c>
       <c r="X100" s="1"/>
     </row>
@@ -5436,11 +5436,11 @@
       </c>
       <c r="N101" s="1">
         <f t="shared" si="21"/>
-        <v>8.8416006702326904</v>
+        <v>9.3026411434325098</v>
       </c>
       <c r="O101" s="1">
         <f t="shared" si="22"/>
-        <v>0.44973266310064552</v>
+        <v>-1.1307810099173032E-2</v>
       </c>
       <c r="P101" s="1"/>
       <c r="Q101" s="1"/>
@@ -5457,11 +5457,11 @@
       </c>
       <c r="V101" s="1">
         <f t="shared" si="24"/>
-        <v>15.040413764165535</v>
+        <v>14.85661666420976</v>
       </c>
       <c r="W101" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490804308321986</v>
+        <v>-5.5652833308764249</v>
       </c>
       <c r="X101" s="1"/>
     </row>
@@ -5506,11 +5506,11 @@
       </c>
       <c r="N102" s="1">
         <f t="shared" si="21"/>
-        <v>8.8464281322609786</v>
+        <v>9.3079990369156249</v>
       </c>
       <c r="O102" s="1">
         <f t="shared" si="22"/>
-        <v>0.44490520107235731</v>
+        <v>-1.6665703582289915E-2</v>
       </c>
       <c r="P102" s="1"/>
       <c r="Q102" s="1"/>
@@ -5527,11 +5527,11 @@
       </c>
       <c r="V102" s="1">
         <f t="shared" si="24"/>
-        <v>15.04041376576626</v>
+        <v>14.85661666578218</v>
       </c>
       <c r="W102" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490804324329234</v>
+        <v>-5.5652833324488453</v>
       </c>
       <c r="X102" s="1"/>
     </row>
@@ -5576,11 +5576,11 @@
       </c>
       <c r="N103" s="1">
         <f t="shared" si="21"/>
-        <v>8.8503343135728834</v>
+        <v>9.3123344212795587</v>
       </c>
       <c r="O103" s="1">
         <f t="shared" si="22"/>
-        <v>0.44099901976045341</v>
+        <v>-2.1001087946223684E-2</v>
       </c>
       <c r="P103" s="1"/>
       <c r="Q103" s="1"/>
@@ -5597,11 +5597,11 @@
       </c>
       <c r="V103" s="1">
         <f t="shared" si="24"/>
-        <v>15.040413766342521</v>
+        <v>14.856616666348252</v>
       </c>
       <c r="W103" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490804330091843</v>
+        <v>-5.565283333014917</v>
       </c>
       <c r="X103" s="1"/>
     </row>
@@ -5646,11 +5646,11 @@
       </c>
       <c r="N104" s="1">
         <f t="shared" si="21"/>
-        <v>8.8534956622813006</v>
+        <v>9.3158431323876822</v>
       </c>
       <c r="O104" s="1">
         <f t="shared" si="22"/>
-        <v>0.4378376710520353</v>
+        <v>-2.450979905434636E-2</v>
       </c>
       <c r="P104" s="1"/>
       <c r="Q104" s="1"/>
@@ -5667,11 +5667,11 @@
       </c>
       <c r="V104" s="1">
         <f t="shared" si="24"/>
-        <v>15.040413766549975</v>
+        <v>14.856616666552039</v>
       </c>
       <c r="W104" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490804332166379</v>
+        <v>-5.5652833332187024</v>
       </c>
       <c r="X104" s="1"/>
     </row>
@@ -5716,11 +5716,11 @@
       </c>
       <c r="N105" s="1">
         <f t="shared" si="21"/>
-        <v>8.8560546147072685</v>
+        <v>9.3186832571667786</v>
       </c>
       <c r="O105" s="1">
         <f t="shared" si="22"/>
-        <v>0.43527871862606826</v>
+        <v>-2.734992383344359E-2</v>
       </c>
       <c r="P105" s="1"/>
       <c r="Q105" s="1"/>
@@ -5737,11 +5737,11 @@
       </c>
       <c r="V105" s="1">
         <f t="shared" si="24"/>
-        <v>15.040413766624656</v>
+        <v>14.856616666625403</v>
       </c>
       <c r="W105" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490804332913212</v>
+        <v>-5.5652833332920659</v>
       </c>
       <c r="X105" s="1"/>
     </row>
@@ -5786,11 +5786,11 @@
       </c>
       <c r="N106" s="1">
         <f t="shared" si="21"/>
-        <v>8.858126226651601</v>
+        <v>9.3209824935089927</v>
       </c>
       <c r="O106" s="1">
         <f t="shared" si="22"/>
-        <v>0.4332071066817349</v>
+        <v>-2.9649160175655886E-2</v>
       </c>
       <c r="P106" s="1"/>
       <c r="Q106" s="1"/>
@@ -5807,11 +5807,11 @@
       </c>
       <c r="V106" s="1">
         <f t="shared" si="24"/>
-        <v>15.040413766651543</v>
+        <v>14.856616666651814</v>
       </c>
       <c r="W106" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490804333182064</v>
+        <v>-5.5652833333184768</v>
       </c>
       <c r="X106" s="1"/>
     </row>
@@ -5856,11 +5856,11 @@
       </c>
       <c r="N107" s="1">
         <f t="shared" si="21"/>
-        <v>8.8598034858060064</v>
+        <v>9.3228440463995632</v>
       </c>
       <c r="O107" s="1">
         <f t="shared" si="22"/>
-        <v>0.43152984752732948</v>
+        <v>-3.1510713066228213E-2</v>
       </c>
       <c r="P107" s="1"/>
       <c r="Q107" s="1"/>
@@ -5877,11 +5877,11 @@
       </c>
       <c r="V107" s="1">
         <f t="shared" si="24"/>
-        <v>15.040413766661221</v>
+        <v>14.856616666661321</v>
       </c>
       <c r="W107" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490804333278858</v>
+        <v>-5.5652833333279839</v>
       </c>
       <c r="X107" s="1"/>
     </row>
@@ -5926,11 +5926,11 @@
       </c>
       <c r="N108" s="1">
         <f t="shared" si="21"/>
-        <v>8.8611615765223171</v>
+        <v>9.3243513612900308</v>
       </c>
       <c r="O108" s="1">
         <f t="shared" si="22"/>
-        <v>0.43017175681101794</v>
+        <v>-3.3018027956695839E-2</v>
       </c>
       <c r="P108" s="1"/>
       <c r="Q108" s="1"/>
@@ -5947,11 +5947,11 @@
       </c>
       <c r="V108" s="1">
         <f t="shared" si="24"/>
-        <v>15.040413766664706</v>
+        <v>14.856616666664742</v>
       </c>
       <c r="W108" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490804333313692</v>
+        <v>-5.5652833333314069</v>
       </c>
       <c r="X108" s="1"/>
     </row>
@@ -5996,11 +5996,11 @@
       </c>
       <c r="N109" s="1">
         <f t="shared" si="21"/>
-        <v>8.8622613093539719</v>
+        <v>9.3255719304705593</v>
       </c>
       <c r="O109" s="1">
         <f t="shared" si="22"/>
-        <v>0.42907202397936306</v>
+        <v>-3.4238597137222548E-2</v>
       </c>
       <c r="P109" s="1"/>
       <c r="Q109" s="1"/>
@@ -6017,11 +6017,11 @@
       </c>
       <c r="V109" s="1">
         <f t="shared" si="24"/>
-        <v>15.04041376666596</v>
+        <v>14.856616666665975</v>
       </c>
       <c r="W109" s="1">
         <f t="shared" si="25"/>
-        <v>-5.7490804333326233</v>
+        <v>-5.5652833333326379</v>
       </c>
       <c r="X109" s="1"/>
     </row>
@@ -6066,11 +6066,11 @@
       </c>
       <c r="N110" s="1">
         <f t="shared" si="21"/>
-        <v>8.8631518827371156</v>
+        <v>9.3265603581987975</v>
       </c>
       <c r="O110" s="1">
         <f t="shared" si="22"/>
-        <v>0.42818145059622026</v>
+        <v>-3.5227024865461587E-2</v>
       </c>
       <c r="P110" s="1"/>
       <c r="Q110" s="1"/>
@@ -6087,11 +6087,11 @@
       </c>
       <c r="V110" s="2">
         <f t="shared" si="24"/>
-        <v>15.040413766666411</v>
+        <v>14.856616666666419</v>
       </c>
       <c r="W110" s="2">
         <f t="shared" si="25"/>
-        <v>-5.7490804333330763</v>
+        <v>-5.5652833333330838</v>
       </c>
       <c r="X110" s="1"/>
     </row>
@@ -6200,7 +6200,7 @@
       </c>
       <c r="B114" s="1">
         <f>C78*B113</f>
-        <v>32.470820999999994</v>
+        <v>34.036499999999997</v>
       </c>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
